--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90447.61457182263</v>
+        <v>16287521.02389653</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90447.61457182263</v>
+        <v>16287521.02389653</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11425.86467934785</v>
+        <v>1323966.513131455</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11425.86467934785</v>
+        <v>1323966.513131455</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265842379.44357</v>
+        <v>51005739.64368524</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10166.69599924097</v>
+        <v>1137960.949010728</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19223.034766696</v>
+        <v>2145666.576332834</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28269.89041039873</v>
+        <v>3185015.193048745</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37609.38424162622</v>
+        <v>4187786.063712725</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46737.98338384127</v>
+        <v>5227208.225199488</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55927.23076774336</v>
+        <v>6262235.222469327</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65142.03748310301</v>
+        <v>7298185.276524145</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74237.74519113223</v>
+        <v>8333981.689121962</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83719.39827022894</v>
+        <v>9349511.838587008</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92846.11904603067</v>
+        <v>10387121.62782546</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101759.4909547694</v>
+        <v>11420441.50044346</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110673.6562140975</v>
+        <v>12453975.88220634</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119565.7660787192</v>
+        <v>13487530.52987469</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128863.1374106675</v>
+        <v>14445868.39941988</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138956.617503817</v>
+        <v>15282745.78723942</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>49.00000000014251</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>318.9999999997993</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>28</v>
